--- a/examples/WMP2026/PGE_2024_PSPS_Damage.xlsx
+++ b/examples/WMP2026/PGE_2024_PSPS_Damage.xlsx
@@ -2,25 +2,39 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jwm/Work/WEEDS/Calculations/mbar-weather/examples/WMP2026/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7A81DF8-0572-8644-A1CC-0F86F003138C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAD6BD7-34B7-0944-B65D-07018182785A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="16340" windowHeight="10840" xr2:uid="{BD223CCA-47B0-F047-BDE7-250518E55D04}"/>
+    <workbookView xWindow="15680" yWindow="6000" windowWidth="18020" windowHeight="10840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PGE_2024_PSPS_Damage" sheetId="1" r:id="rId1"/>
+    <sheet name="PGE24WIND" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="39">
   <si>
     <t>OBJECTID</t>
   </si>
@@ -68,14 +82,84 @@
   </si>
   <si>
     <t>Grass Fuel Model</t>
+  </si>
+  <si>
+    <t>PG761</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>2024-09-30T07:00:00Z</t>
+  </si>
+  <si>
+    <t>PG370</t>
+  </si>
+  <si>
+    <t>2024-10-18T14:30:00Z</t>
+  </si>
+  <si>
+    <t>PG199</t>
+  </si>
+  <si>
+    <t>2024-10-19T17:20:00Z</t>
+  </si>
+  <si>
+    <t>JBGC1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2024-11-07T08:13:00Z</t>
+  </si>
+  <si>
+    <t>PG132</t>
+  </si>
+  <si>
+    <t>2024-11-07T01:20:00Z</t>
+  </si>
+  <si>
+    <t>ONOC1</t>
+  </si>
+  <si>
+    <t>2024-11-06T16:33:00Z</t>
+  </si>
+  <si>
+    <t>PG610</t>
+  </si>
+  <si>
+    <t>2024-11-08T22:00:00Z</t>
+  </si>
+  <si>
+    <t>364PG</t>
+  </si>
+  <si>
+    <t>2024-11-06T16:50:00Z</t>
+  </si>
+  <si>
+    <t>2024-11-06T13:40:00Z</t>
+  </si>
+  <si>
+    <t>PG977</t>
+  </si>
+  <si>
+    <t>2024-11-06T18:10:00Z</t>
+  </si>
+  <si>
+    <t>Max 72 hr</t>
+  </si>
+  <si>
+    <t>Time Max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -128,16 +212,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,13 +557,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376FB055-CD7C-C240-A518-DD8D20941113}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -532,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4">
-        <v>45566.441666666666</v>
+        <v>45566.441666666673</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>10</v>
@@ -542,10 +628,10 @@
         <v>11</v>
       </c>
       <c r="H2" s="3">
-        <v>-121.91194445999997</v>
+        <v>-121.91194446</v>
       </c>
       <c r="I2" s="3">
-        <v>40.903712718000065</v>
+        <v>40.903712718000072</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -569,7 +655,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="3">
-        <v>-121.81299796599995</v>
+        <v>-121.812997966</v>
       </c>
       <c r="I3" s="3">
         <v>37.053090022000049</v>
@@ -596,7 +682,7 @@
         <v>14</v>
       </c>
       <c r="H4" s="3">
-        <v>-122.42554169199997</v>
+        <v>-122.425541692</v>
       </c>
       <c r="I4" s="3">
         <v>38.617507936000038</v>
@@ -623,10 +709,10 @@
         <v>13</v>
       </c>
       <c r="H5" s="3">
-        <v>-121.46098069899995</v>
+        <v>-121.4609806989999</v>
       </c>
       <c r="I5" s="3">
-        <v>39.701726774000065</v>
+        <v>39.701726774000058</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -650,10 +736,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="3">
-        <v>-122.59656866099999</v>
+        <v>-122.59656866100001</v>
       </c>
       <c r="I6" s="3">
-        <v>38.657501946000025</v>
+        <v>38.657501946000018</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -677,7 +763,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="3">
-        <v>-122.24288280699994</v>
+        <v>-122.2428828069999</v>
       </c>
       <c r="I7" s="3">
         <v>37.886285982000061</v>
@@ -704,10 +790,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="3">
-        <v>-121.90016494699995</v>
+        <v>-121.90016494699999</v>
       </c>
       <c r="I8" s="3">
-        <v>37.102822023000044</v>
+        <v>37.102822023000037</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -731,7 +817,7 @@
         <v>14</v>
       </c>
       <c r="H9" s="3">
-        <v>-122.58959161099995</v>
+        <v>-122.5895916109999</v>
       </c>
       <c r="I9" s="3">
         <v>39.060332914000071</v>
@@ -758,7 +844,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="3">
-        <v>-121.81303496599998</v>
+        <v>-121.813034966</v>
       </c>
       <c r="I10" s="3">
         <v>37.053310021000073</v>
@@ -785,7 +871,7 @@
         <v>13</v>
       </c>
       <c r="H11" s="3">
-        <v>-122.45517872299996</v>
+        <v>-122.455178723</v>
       </c>
       <c r="I11" s="3">
         <v>38.32108996200003</v>
@@ -802,7 +888,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="4">
-        <v>45603.645833333336</v>
+        <v>45603.645833333343</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>12</v>
@@ -812,7 +898,7 @@
         <v>13</v>
       </c>
       <c r="H12" s="3">
-        <v>-122.44098872699999</v>
+        <v>-122.440988727</v>
       </c>
       <c r="I12" s="3">
         <v>38.305434962000049</v>
@@ -822,9 +908,549 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;P</oddHeader>
-    <oddFooter>&amp;F</oddFooter>
-  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:U12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="A7:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="13" max="13" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>45566.441666666673</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>-121.91194446</v>
+      </c>
+      <c r="I2">
+        <v>40.903712718000072</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2">
+        <v>22.21</v>
+      </c>
+      <c r="O2">
+        <v>432</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>45584.51666666667</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>-121.812997966</v>
+      </c>
+      <c r="I3">
+        <v>37.053090022000049</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3">
+        <v>0.89</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3">
+        <v>52.32</v>
+      </c>
+      <c r="O3">
+        <v>3519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>45585.554166666669</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>-122.425541692</v>
+      </c>
+      <c r="I4">
+        <v>38.617507936000038</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4">
+        <v>2.04</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4">
+        <v>38.5</v>
+      </c>
+      <c r="O4">
+        <v>4649</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>45603.531944444447</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>-121.4609806989999</v>
+      </c>
+      <c r="I5">
+        <v>39.701726774000058</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5">
+        <v>2.79</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5">
+        <v>49</v>
+      </c>
+      <c r="O5">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>45604.20208333333</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <v>-122.59656866100001</v>
+      </c>
+      <c r="I6">
+        <v>38.657501946000018</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6">
+        <v>2.13</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6">
+        <v>58.01</v>
+      </c>
+      <c r="O6">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>45603.395138888889</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>-122.2428828069999</v>
+      </c>
+      <c r="I7">
+        <v>37.886285982000061</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7">
+        <v>1.9</v>
+      </c>
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7">
+        <v>57</v>
+      </c>
+      <c r="O7">
+        <v>7536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5">
+        <v>45604.487500000003</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>-121.90016494699999</v>
+      </c>
+      <c r="I8">
+        <v>37.102822023000037</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8">
+        <v>3.07</v>
+      </c>
+      <c r="M8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="O8">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>45603.405555555553</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>-122.5895916109999</v>
+      </c>
+      <c r="I9">
+        <v>39.060332914000071</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9">
+        <v>3.29</v>
+      </c>
+      <c r="M9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9">
+        <v>46.91</v>
+      </c>
+      <c r="O9">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>45602.963194444441</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>-121.813034966</v>
+      </c>
+      <c r="I10">
+        <v>37.053310021000073</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10">
+        <v>0.87</v>
+      </c>
+      <c r="M10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10">
+        <v>63.42</v>
+      </c>
+      <c r="O10">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>45603.468055555553</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>-122.455178723</v>
+      </c>
+      <c r="I11">
+        <v>38.32108996200003</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11">
+        <v>2.59</v>
+      </c>
+      <c r="M11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11">
+        <v>50.12</v>
+      </c>
+      <c r="O11">
+        <v>8315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>45603.645833333343</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>-122.440988727</v>
+      </c>
+      <c r="I12">
+        <v>38.305434962000049</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12">
+        <v>3.85</v>
+      </c>
+      <c r="M12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12">
+        <v>50.12</v>
+      </c>
+      <c r="O12">
+        <v>9618</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>